--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3602076.307321499</v>
+        <v>3709152.166129024</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7626514.81461228</v>
+        <v>7603803.54771037</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>179.4336257791589</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>57.67682159612232</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>33.99895236607842</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>37.15828489274803</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>114.7075771024965</v>
       </c>
       <c r="T5" t="n">
-        <v>191.2490250244976</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>76.25086600925691</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>111.8003211673807</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.591989030694</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>213.8823301477466</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>31.94564439956877</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>19.43775000239708</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.5188249813913</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1663,7 @@
         <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701348</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.14989839348819</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1844,13 +1846,13 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>78.68827782033955</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>142.3575218158273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>173.2052365248852</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>4.444394634328862</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>8.579726596858007</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>181.1911789297516</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>105.0006820737993</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541848</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>211.5194646822735</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3323,13 +3325,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>143.1086912616894</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>187.2551470558694</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>71.58885292963951</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>40.96105405076426</v>
+        <v>38.2187527515831</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2172.199996424343</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C2" t="n">
-        <v>1803.237479483932</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D2" t="n">
-        <v>1444.971780877181</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>1059.183528278937</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>648.1976234893293</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>232.4928732136182</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1585.9911156994</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424343</v>
+        <v>1195.851783723588</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.6188956900839</v>
+        <v>790.6765725771249</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6188956900839</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D4" t="n">
-        <v>233.5022562777482</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E4" t="n">
-        <v>85.58916269535504</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>85.58916269535504</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>85.58916269535504</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1496.329092486294</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1273.350611681029</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>1273.350611681029</v>
       </c>
       <c r="V4" t="n">
-        <v>673.0360657270445</v>
+        <v>1018.666123475142</v>
       </c>
       <c r="W4" t="n">
-        <v>383.6188956900839</v>
+        <v>1018.666123475142</v>
       </c>
       <c r="X4" t="n">
-        <v>383.6188956900839</v>
+        <v>790.6765725771249</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.6188956900839</v>
+        <v>790.6765725771249</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.5673701373257</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2446.473088902684</v>
       </c>
       <c r="T5" t="n">
-        <v>3022.134319778188</v>
+        <v>2446.473088902684</v>
       </c>
       <c r="U5" t="n">
-        <v>2768.603843052024</v>
+        <v>2446.473088902684</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.540955708454</v>
+        <v>2446.473088902684</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.772300438339</v>
+        <v>2093.704433632569</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.306542177259</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.167210201447</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.2582702654239</v>
+        <v>128.2678633450303</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>128.2678633450303</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>128.2678633450303</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>128.2678633450303</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1724.534473505232</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1502.767858074758</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1213.664991200402</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>1213.664991200402</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W7" t="n">
-        <v>924.2478211634412</v>
+        <v>758.6984582168175</v>
       </c>
       <c r="X7" t="n">
-        <v>696.2582702654239</v>
+        <v>530.7089073188001</v>
       </c>
       <c r="Y7" t="n">
-        <v>696.2582702654239</v>
+        <v>309.91632817527</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.419770374778</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>520.410991093636</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>815.1145481251078</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1565.661695681273</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1604.177792398166</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1604.177792398166</v>
       </c>
       <c r="U10" t="n">
-        <v>1626.144115761335</v>
+        <v>1315.059454902003</v>
       </c>
       <c r="V10" t="n">
-        <v>1371.459627555448</v>
+        <v>1060.374966696116</v>
       </c>
       <c r="W10" t="n">
-        <v>1371.459627555448</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="X10" t="n">
-        <v>1143.470076657431</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.6774975139006</v>
+        <v>770.9577966591559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703109</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>547.5889719879178</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,7 +5506,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,10 +5515,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6062,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
         <v>716.6687843969308</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2272.00829921169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2052.406834234631</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>2052.406834234631</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6205,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N27" t="n">
         <v>1344.266747951538</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2371.250989330786</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2151.649524353727</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1862.574297697925</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1090.48308855706</v>
+        <v>961.2628027535235</v>
       </c>
       <c r="Y28" t="n">
-        <v>869.6905094135296</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>3052.912304341663</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954145</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380724</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311318</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656413</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6941,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7014,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>3195.262992109387</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>3026.32680918148</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3825.693586981174</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3597.704036083157</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3376.911456939627</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>1963.765362972544</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7828,19 +7830,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
         <v>1647.011051783227</v>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.64270034434963</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>224.3355197601762</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.31315520054596</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.27114962944304</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>147.0213775686976</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.1654765207637</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>7.821049476759384</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>221.2652607547083</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.4465594047866</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>44.51847645928558</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.83129810813796</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>74.66500970697066</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5.50678175652294</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.15030327141886</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>108.2431272522978</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>211.1765892730637</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>664152.7434715746</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>664152.7434715746</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664152.7434715746</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>68537.81069968632</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808325</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808323</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732022</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731991</v>
+        <v>8117.312426732026</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426732024</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732074</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982544</v>
+        <v>8117.312426732036</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982539</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065582</v>
+        <v>-562017.8749065585</v>
       </c>
       <c r="C6" t="n">
-        <v>381312.6519994863</v>
+        <v>552733.9086693614</v>
       </c>
       <c r="D6" t="n">
-        <v>584751.3936115925</v>
+        <v>552733.9086693604</v>
       </c>
       <c r="E6" t="n">
-        <v>332136.9656475114</v>
+        <v>150063.9858303213</v>
       </c>
       <c r="F6" t="n">
+        <v>657549.4274548665</v>
+      </c>
+      <c r="G6" t="n">
+        <v>657549.4274548667</v>
+      </c>
+      <c r="H6" t="n">
         <v>657549.4274548669</v>
       </c>
-      <c r="G6" t="n">
-        <v>657549.4274548668</v>
-      </c>
-      <c r="H6" t="n">
-        <v>657549.4274548664</v>
-      </c>
       <c r="I6" t="n">
+        <v>657549.4274548669</v>
+      </c>
+      <c r="J6" t="n">
+        <v>489944.2496448845</v>
+      </c>
+      <c r="K6" t="n">
+        <v>657549.4274548671</v>
+      </c>
+      <c r="L6" t="n">
         <v>657549.4274548667</v>
       </c>
-      <c r="J6" t="n">
-        <v>489944.2496448842</v>
-      </c>
-      <c r="K6" t="n">
-        <v>592179.5831276425</v>
-      </c>
-      <c r="L6" t="n">
-        <v>660717.3938273286</v>
-      </c>
       <c r="M6" t="n">
-        <v>575662.3658918169</v>
+        <v>524942.1337259404</v>
       </c>
       <c r="N6" t="n">
-        <v>660717.3938273286</v>
+        <v>657549.4274548672</v>
       </c>
       <c r="O6" t="n">
-        <v>660717.3938273287</v>
+        <v>657549.4274548673</v>
       </c>
       <c r="P6" t="n">
-        <v>657549.4274548669</v>
+        <v>657549.4274548667</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27260,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>121.5849267832465</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>312.0542790823467</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>113.2525567890505</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.5041754689894</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>8.744638296297836</v>
       </c>
       <c r="T5" t="n">
-        <v>12.66894511512251</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>69.17018201367434</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>77.96870416406121</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>271.1418526327866</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>172.355608508307</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>162.7168159621687</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>266.7740882032158</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,16 +31846,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,31 +32323,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,16 +32788,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33020,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>322.6999460717714</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,10 +33745,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868051</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>456.5952253539618</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,13 +34216,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145774</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839445</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>313.3230609821998</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>410.9230160036611</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,10 +37393,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034718</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312441</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3709152.166129024</v>
+        <v>3705015.008878872</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7603803.54771037</v>
+        <v>7603803.547710369</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>160.7679129414086</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>57.67682159612232</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>37.15828489274803</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472223</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8.521520040221555</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>114.7075771024965</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>76.25086600925691</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>87.00298608536455</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="Y8" t="n">
-        <v>213.8823301477466</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208624</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>31.94564439956877</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.5188249813913</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.52129633183122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>78.68827782033955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>4.444394634328862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>181.1911789297516</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0006820737993</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>211.5194646822735</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>143.1086912616894</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>187.2551470558694</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.58885292963951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>809.2519436594666</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C2" t="n">
-        <v>440.2894267190549</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>440.2894267190549</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1944.185402329106</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1591.416747058992</v>
       </c>
       <c r="X2" t="n">
-        <v>1585.9911156994</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="Y2" t="n">
-        <v>1195.851783723588</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>790.6765725771249</v>
+        <v>2013.576367813029</v>
       </c>
       <c r="C4" t="n">
-        <v>621.7403896492181</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492181</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1496.329092486294</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1273.350611681029</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1273.350611681029</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1018.666123475142</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.666123475142</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X4" t="n">
-        <v>790.6765725771249</v>
+        <v>2416.017411786799</v>
       </c>
       <c r="Y4" t="n">
-        <v>790.6765725771249</v>
+        <v>2195.224832643269</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.099343395678</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2446.473088902684</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2446.473088902684</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2446.473088902684</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2446.473088902684</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2093.704433632569</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1720.23867537149</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.099343395678</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458918</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.2678633450303</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C7" t="n">
-        <v>128.2678633450303</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>128.2678633450303</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>128.2678633450303</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1548.564315947866</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253778</v>
+        <v>1293.879827741979</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168175</v>
+        <v>1004.462657705019</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7089073188001</v>
+        <v>1004.462657705019</v>
       </c>
       <c r="Y7" t="n">
-        <v>309.91632817527</v>
+        <v>783.6700785614887</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
         <v>859.685290191162</v>
@@ -4792,64 +4792,64 @@
         <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.290404920692</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.290404920692</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.247647195695</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>520.410991093636</v>
+        <v>575.6256845144201</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251078</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084328</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681273</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.9577966591559</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>602.021613731249</v>
+        <v>837.0793422748033</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>686.9627028624675</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>539.0496092800744</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>392.159661782164</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>224.1731970904426</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>75.4342989539488</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1604.177792398166</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1604.177792398166</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1315.059454902003</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1060.374966696116</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>770.9577966591559</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>770.9577966591559</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>770.9577966591559</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.3315352860773</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5266,34 +5266,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232838</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>961.2628027535235</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.2628027535235</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3052.912304341663</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2883.976121413757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3379.766178509233</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1763.805055578919</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1509.120567373032</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1219.703397336071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>991.7138464380538</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.262992109387</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.32680918148</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>4115.110757018135</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3825.693586981174</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3597.704036083157</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.911456939627</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,16 +7724,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
         <v>1373.553594266881</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.591198401904</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>15.64270034434963</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>224.3355197601762</v>
+        <v>154.0169020165192</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.31315520054596</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>44.51847645928558</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.83129810813796</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>74.66500970697066</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.50678175652294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>30.15030327141886</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108.2431272522978</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>671283.0564728596</v>
+        <v>671283.0564728597</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710696</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055058</v>
@@ -26331,31 +26331,31 @@
         <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
       </c>
       <c r="K2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26426,19 +26426,19 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731934</v>
+      </c>
+      <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426732026</v>
-      </c>
       <c r="G4" t="n">
-        <v>8117.312426732024</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732074</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26447,7 +26447,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065585</v>
+        <v>-562017.8749065584</v>
       </c>
       <c r="C6" t="n">
-        <v>552733.9086693614</v>
+        <v>552733.9086693611</v>
       </c>
       <c r="D6" t="n">
-        <v>552733.9086693604</v>
+        <v>552733.9086693613</v>
       </c>
       <c r="E6" t="n">
-        <v>150063.9858303213</v>
+        <v>149716.606575964</v>
       </c>
       <c r="F6" t="n">
-        <v>657549.4274548665</v>
+        <v>657202.0482005099</v>
       </c>
       <c r="G6" t="n">
-        <v>657549.4274548667</v>
+        <v>657202.0482005101</v>
       </c>
       <c r="H6" t="n">
-        <v>657549.4274548669</v>
+        <v>657202.0482005099</v>
       </c>
       <c r="I6" t="n">
-        <v>657549.4274548669</v>
+        <v>657202.0482005102</v>
       </c>
       <c r="J6" t="n">
-        <v>489944.2496448845</v>
+        <v>489596.8703905272</v>
       </c>
       <c r="K6" t="n">
-        <v>657549.4274548671</v>
+        <v>657202.0482005102</v>
       </c>
       <c r="L6" t="n">
-        <v>657549.4274548667</v>
+        <v>657202.0482005099</v>
       </c>
       <c r="M6" t="n">
-        <v>524942.1337259404</v>
+        <v>524594.7544715833</v>
       </c>
       <c r="N6" t="n">
-        <v>657549.4274548672</v>
+        <v>657202.04820051</v>
       </c>
       <c r="O6" t="n">
-        <v>657549.4274548673</v>
+        <v>657202.0482005096</v>
       </c>
       <c r="P6" t="n">
-        <v>657549.4274548667</v>
+        <v>657202.0482005099</v>
       </c>
     </row>
   </sheetData>
@@ -26697,16 +26697,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>90.2773371870534</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>312.0542790823467</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>157.5041754689894</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.8509579418149</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>346.1615215804614</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>8.744638296297836</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>69.17018201367434</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>199.224168035836</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627905</v>
       </c>
       <c r="Y8" t="n">
-        <v>172.355608508307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.85095794181434</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>162.7168159621687</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,16 +31846,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32077,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32551,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>555.0107214892114</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>553.5225306839445</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>313.3230609821998</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091748</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>410.9230160036611</v>
+        <v>340.604398260004</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>640.584832100039</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>423.6690094058781</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3705015.008878872</v>
+        <v>3706775.539181657</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7603803.547710369</v>
+        <v>7603803.54771037</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>318.1437649779772</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>160.7679129414086</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.8127283073653</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472223</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8.521520040221555</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>236.4786793360196</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>87.00298608536455</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>17.42775815369493</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>163.1366525438124</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208624</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>32.4720786658923</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>80.08971311158757</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>33.66638448560004</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>170.9457618790573</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1217.950988797912</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>749.4796705208573</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>391.2139719141068</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
         <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2275.248289672677</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1944.185402329106</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1591.416747058992</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1217.950988797912</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1217.950988797912</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.576367813029</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885122</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W4" t="n">
-        <v>2562.339328400155</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X4" t="n">
-        <v>2416.017411786799</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y4" t="n">
-        <v>2195.224832643269</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554974</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C5" t="n">
-        <v>934.6665353554974</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>701.1000442222769</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>701.1000442222769</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>290.1141394326693</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419619</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>602.021613731249</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.564315947866</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.879827741979</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.462657705019</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1004.462657705019</v>
+        <v>864.3549109336323</v>
       </c>
       <c r="Y7" t="n">
-        <v>783.6700785614887</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>234.6411310715161</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>990.2034880760496</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>575.6256845144201</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458918</v>
+        <v>593.9684409159566</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748033</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624675</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800744</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>392.159661782164</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904426</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>75.4342989539488</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5135,13 +5135,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,13 +6077,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6645,7 +6645,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
         <v>2254.869721166297</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,16 +7119,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
         <v>1491.508541327549</v>
@@ -7165,13 +7165,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,16 +7493,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7551,16 +7551,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="P3" t="n">
-        <v>138.9393975111061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>84.94186588374697</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>154.0169020165192</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.9556134883067671</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>147.359901516045</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>68.52575990662478</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>252.5180899036441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>46.45968844823099</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710696</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26447,10 +26447,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065584</v>
+        <v>-562017.8749065588</v>
       </c>
       <c r="C6" t="n">
         <v>552733.9086693611</v>
       </c>
       <c r="D6" t="n">
-        <v>552733.9086693613</v>
+        <v>552733.908669361</v>
       </c>
       <c r="E6" t="n">
-        <v>149716.606575964</v>
+        <v>150029.2479048853</v>
       </c>
       <c r="F6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="G6" t="n">
-        <v>657202.0482005101</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="H6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="I6" t="n">
-        <v>657202.0482005102</v>
+        <v>657514.6895294314</v>
       </c>
       <c r="J6" t="n">
-        <v>489596.8703905272</v>
+        <v>489909.5117194487</v>
       </c>
       <c r="K6" t="n">
-        <v>657202.0482005102</v>
+        <v>657514.6895294314</v>
       </c>
       <c r="L6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="M6" t="n">
-        <v>524594.7544715833</v>
+        <v>524907.3958005047</v>
       </c>
       <c r="N6" t="n">
-        <v>657202.04820051</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="O6" t="n">
-        <v>657202.0482005096</v>
+        <v>657514.6895294311</v>
       </c>
       <c r="P6" t="n">
-        <v>657202.0482005099</v>
+        <v>657514.6895294313</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>63.78660509428454</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>90.2773371870534</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.32491501646271</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.8509579418149</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>346.1615215804614</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>175.0690234369344</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>199.224168035836</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>191.5463890768705</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627905</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>80.85095794181434</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31855,7 +31855,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>521.8736946105084</v>
       </c>
       <c r="P3" t="n">
-        <v>388.6189266346383</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>271.5293621272318</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>340.604398260004</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>298.635974126157</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
